--- a/IPAM-LF09.xlsx
+++ b/IPAM-LF09.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3D3319-0BAA-4012-B9F7-E9D5A7141631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0DAB71-E168-4573-BF24-F92EFD20AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
   </bookViews>
   <sheets>
     <sheet name="Adressplan" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="195">
   <si>
     <t>Router</t>
   </si>
@@ -1052,10 +1052,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00273E"/>
+      <color rgb="FF302683"/>
       <color rgb="FF1C50A6"/>
       <color rgb="FF0F77C4"/>
-      <color rgb="FF00273E"/>
-      <color rgb="FF302683"/>
       <color rgb="FFF5F5F5"/>
     </mruColors>
   </colors>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2D726D-2692-43DA-9E6F-4600448AD023}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2380,7 +2380,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3479,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CDC480-7F4C-4635-8D2F-5841557ECE42}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3554,7 +3554,9 @@
         <v>40</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F3" s="14"/>
       <c r="G3" s="28"/>
       <c r="H3" s="29"/>
@@ -3582,7 +3584,9 @@
         <v>37</v>
       </c>
       <c r="D4" s="27"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="26"/>
       <c r="H4" s="15"/>
@@ -3611,7 +3615,9 @@
         <v>39</v>
       </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -3639,7 +3645,9 @@
         <v>38</v>
       </c>
       <c r="D6" s="27"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="26"/>
       <c r="H6" s="15"/>
@@ -3718,7 +3726,9 @@
         <v>36</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="28"/>
       <c r="H9" s="29"/>
@@ -3730,7 +3740,9 @@
         <v>41</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="29"/>
@@ -3744,7 +3756,9 @@
         <v>41</v>
       </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="26"/>
       <c r="H10" s="15"/>
@@ -3772,7 +3786,9 @@
         <v>38</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="24"/>
       <c r="H11" s="14"/>
@@ -3802,7 +3818,9 @@
         <v>39</v>
       </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="26"/>
       <c r="H12" s="15"/>
@@ -3885,7 +3903,9 @@
         <v>36</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
@@ -3897,7 +3917,9 @@
         <v>38</v>
       </c>
       <c r="M15" s="25"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="O15" s="14"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="29"/>
@@ -3912,7 +3934,9 @@
         <v>37</v>
       </c>
       <c r="D16" s="27"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="26"/>
       <c r="H16" s="15"/>
@@ -3941,7 +3965,9 @@
         <v>42</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="24"/>
       <c r="H17" s="14"/>
@@ -3965,7 +3991,9 @@
         <v>39</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="26"/>
       <c r="H18" s="15"/>
@@ -4048,7 +4076,9 @@
         <v>36</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
@@ -4060,7 +4090,9 @@
         <v>39</v>
       </c>
       <c r="M21" s="25"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="O21" s="14"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="29"/>
@@ -4075,7 +4107,9 @@
         <v>37</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="26"/>
       <c r="H22" s="15"/>
@@ -4104,7 +4138,9 @@
         <v>38</v>
       </c>
       <c r="D23" s="25"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="24"/>
       <c r="H23" s="14"/>
@@ -4128,7 +4164,9 @@
         <v>43</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="26"/>
       <c r="H24" s="15"/>
@@ -4717,4 +4755,211 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008A75D19543625F48A343EBBFDE8A1AF0" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="be381b1a9edccbef62ae652cd7b33d75">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="586318e7-31aa-4bf9-bc99-c56363ea0cc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a61ce9f5697c90e5f77b755d824a196" ns3:_="">
+    <xsd:import namespace="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="586318e7-31aa-4bf9-bc99-c56363ea0cc9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5873EFE8-08B0-4823-81AB-630E51678F03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C8777A-9018-4F57-A22E-758331E42F2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64664553-8C80-47CA-9108-D5700976F560}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IPAM-LF09.xlsx
+++ b/IPAM-LF09.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F689B-9F39-4BB0-A8E1-0CA59F912057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9551BC-E71E-4BD5-A2CE-5E7CBDD9250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
   </bookViews>
   <sheets>
     <sheet name="Adressplan &amp; VLAN-Adressen" sheetId="2" r:id="rId1"/>
-    <sheet name="RT+SW  &amp; Client+Server Adressen" sheetId="3" r:id="rId2"/>
+    <sheet name="SW  &amp; Client+Server Adressen" sheetId="3" r:id="rId2"/>
     <sheet name="Transportnetz-Adressen" sheetId="5" r:id="rId3"/>
     <sheet name="Statische Routen" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Portbelegung" sheetId="7" r:id="rId5"/>
@@ -468,9 +468,6 @@
     <t>Adressplan</t>
   </si>
   <si>
-    <t>Router- und Switch-Adressen</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>2001:db8:D60::/64</t>
+  </si>
+  <si>
+    <t>Switch-Adressen</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1068,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1538,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1583,10 +1583,10 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
@@ -1601,30 +1601,30 @@
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H4" s="6"/>
@@ -1633,30 +1633,30 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>125</v>
       </c>
       <c r="H5" s="8"/>
@@ -1665,30 +1665,30 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H6" s="6"/>
@@ -1697,30 +1697,30 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H7" s="8"/>
@@ -1729,30 +1729,30 @@
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H8" s="6"/>
@@ -1761,175 +1761,175 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="A14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="10"/>
+      <c r="A16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="10"/>
+      <c r="A18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -2026,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C19E1F8-EBDF-475C-ABFA-B0924175ABEA}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2088,156 +2088,156 @@
         <v>17</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="9"/>
+      <c r="I3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="10"/>
+      <c r="I4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="9"/>
+      <c r="I5" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="10"/>
+      <c r="I6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="I7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="10"/>
+      <c r="I8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="16" t="s">
@@ -2291,25 +2291,25 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
@@ -2317,25 +2317,25 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="10"/>
+      <c r="K13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
@@ -2343,25 +2343,25 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="9"/>
+      <c r="K14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
@@ -2369,69 +2369,69 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" s="10"/>
+      <c r="K15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="9"/>
+      <c r="K16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="10"/>
+      <c r="K17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="86">
@@ -2447,12 +2447,12 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="I13:J13"/>
@@ -2464,6 +2464,8 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -2494,18 +2496,15 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:L1"/>
@@ -2521,6 +2520,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2530,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C264FEC-7202-414F-91B4-973A059B06E2}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10:M10"/>
     </sheetView>
   </sheetViews>
@@ -2560,11 +2560,11 @@
         <v>30</v>
       </c>
       <c r="J1" s="26"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -2575,448 +2575,448 @@
         <v>19</v>
       </c>
       <c r="D2" s="14"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" s="14"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -3458,78 +3458,78 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="35" t="s">
         <v>121</v>
       </c>
       <c r="H3" s="36"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="34"/>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="35" t="s">
         <v>128</v>
       </c>
       <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="30"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="31" t="s">
         <v>120</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="29" t="s">
         <v>35</v>
       </c>
       <c r="M4" s="30"/>
-      <c r="N4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="10"/>
+      <c r="N4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="9"/>
       <c r="P4" s="31" t="s">
         <v>129</v>
       </c>
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="33" t="s">
         <v>22</v>
       </c>
@@ -3542,16 +3542,16 @@
         <v>122</v>
       </c>
       <c r="H5" s="42"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="33" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="34"/>
       <c r="N5" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O5" s="34"/>
       <c r="P5" s="41" t="s">
@@ -3560,28 +3560,28 @@
       <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="31" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="32"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="29"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
     </row>
@@ -3643,130 +3643,130 @@
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="35" t="s">
         <v>128</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="34"/>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="35" t="s">
         <v>120</v>
       </c>
       <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="31" t="s">
         <v>131</v>
       </c>
       <c r="H10" s="32"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="29" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="30"/>
-      <c r="N10" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="10"/>
+      <c r="N10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="9"/>
       <c r="P10" s="31" t="s">
         <v>133</v>
       </c>
       <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="41" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="33" t="s">
         <v>38</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="N11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O11" s="9"/>
+      <c r="N11" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="10"/>
       <c r="P11" s="41" t="s">
         <v>134</v>
       </c>
       <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="30"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="31" t="s">
         <v>122</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="29"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="31"/>
       <c r="Q12" s="32"/>
     </row>
@@ -3828,122 +3828,122 @@
       <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="35" t="s">
         <v>128</v>
       </c>
       <c r="H15" s="36"/>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="34"/>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="35" t="s">
         <v>123</v>
       </c>
       <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="31" t="s">
         <v>120</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="31" t="s">
-        <v>206</v>
-      </c>
       <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="34"/>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="41" t="s">
         <v>132</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="33"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="31" t="s">
         <v>122</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="29"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32"/>
     </row>
@@ -4005,122 +4005,122 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="34"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="35" t="s">
         <v>128</v>
       </c>
       <c r="H21" s="36"/>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="33" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="34"/>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="35" t="s">
         <v>122</v>
       </c>
       <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="30"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="31" t="s">
         <v>120</v>
       </c>
       <c r="H22" s="32"/>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M22" s="30"/>
-      <c r="N22" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="10"/>
+      <c r="N22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="9"/>
       <c r="P22" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="34"/>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="41" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="42"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="33"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="30"/>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="31" t="s">
         <v>135</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="29"/>
       <c r="M24" s="30"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="32"/>
     </row>
@@ -4182,41 +4182,41 @@
       <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="34"/>
-      <c r="E27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="35" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="36"/>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="33" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="34"/>
-      <c r="N27" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" s="9"/>
+      <c r="N27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="O27" s="10"/>
       <c r="P27" s="35" t="s">
         <v>121</v>
       </c>
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
@@ -4224,7 +4224,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="30"/>
       <c r="L28" s="29"/>
       <c r="M28" s="30"/>
@@ -4291,41 +4291,41 @@
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="10"/>
       <c r="G31" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H31" s="36"/>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M31" s="34"/>
-      <c r="N31" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O31" s="9"/>
+      <c r="N31" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="10"/>
       <c r="P31" s="35" t="s">
         <v>131</v>
       </c>
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
@@ -4333,7 +4333,7 @@
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
       <c r="H32" s="32"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="30"/>
       <c r="L32" s="29"/>
       <c r="M32" s="30"/>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -4355,7 +4355,7 @@
       <c r="H33" s="26"/>
       <c r="I33" s="3"/>
       <c r="J33" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
@@ -4400,41 +4400,41 @@
       <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="10"/>
       <c r="G35" s="35" t="s">
         <v>132</v>
       </c>
       <c r="H35" s="36"/>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="33" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="34"/>
-      <c r="N35" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="O35" s="9"/>
+      <c r="N35" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="10"/>
       <c r="P35" s="35" t="s">
         <v>135</v>
       </c>
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="30"/>
       <c r="C36" s="29"/>
       <c r="D36" s="30"/>
@@ -4442,7 +4442,7 @@
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
       <c r="H36" s="32"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="30"/>
       <c r="L36" s="29"/>
       <c r="M36" s="30"/>

--- a/IPAM-LF09.xlsx
+++ b/IPAM-LF09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9551BC-E71E-4BD5-A2CE-5E7CBDD9250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212BC82C-8862-4E12-8256-2CDD49F4BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
   </bookViews>
   <sheets>
     <sheet name="Adressplan &amp; VLAN-Adressen" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Transportnetz-Adressen" sheetId="5" r:id="rId3"/>
     <sheet name="Statische Routen" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Portbelegung" sheetId="7" r:id="rId5"/>
+    <sheet name="OSPFv3 IDs" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="239">
   <si>
     <t>Router</t>
   </si>
@@ -712,13 +713,58 @@
   </si>
   <si>
     <t>Switch-Adressen</t>
+  </si>
+  <si>
+    <t>OSPFv3 ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2.</t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>1.1.2.4</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>0, 2</t>
+  </si>
+  <si>
+    <t>0, 3</t>
+  </si>
+  <si>
+    <t>0, 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +806,12 @@
       <color rgb="FFF5F5F5"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -781,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1092,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF5F5F5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF5F5F5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF5F5F5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF5F5F5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF5F5F5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF5F5F5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF5F5F5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF5F5F5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF5F5F5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF5F5F5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF5F5F5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF5F5F5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF5F5F5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF5F5F5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF5F5F5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF5F5F5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF5F5F5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1053,49 +1195,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,6 +1208,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,30 +1273,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,12 +1285,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1178,11 +1352,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5F5F5"/>
       <color rgb="FF00273E"/>
       <color rgb="FF1C50A6"/>
       <color rgb="FF302683"/>
       <color rgb="FF0F77C4"/>
-      <color rgb="FFF5F5F5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1530,426 +1704,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="16">
+      <c r="H3" s="20"/>
+      <c r="I3" s="15">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5">
+      <c r="H4" s="22"/>
+      <c r="I4" s="9">
         <v>20</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="22"/>
+      <c r="M4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7">
+      <c r="H5" s="23"/>
+      <c r="I5" s="11">
         <v>30</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5">
+      <c r="H6" s="22"/>
+      <c r="I6" s="9">
         <v>40</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="22"/>
+      <c r="M6" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7">
+      <c r="H7" s="23"/>
+      <c r="I7" s="11">
         <v>50</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5">
+      <c r="H8" s="22"/>
+      <c r="I8" s="9">
         <v>60</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="21" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G1:P1"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
@@ -1966,55 +2172,23 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2026,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C19E1F8-EBDF-475C-ABFA-B0924175ABEA}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2038,473 +2212,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="22"/>
+      <c r="K13" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="10" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="10" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="9" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:L1"/>
@@ -2521,6 +2625,76 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2540,486 +2714,573 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="18"/>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="J1" s="27"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A1:B1"/>
@@ -3044,93 +3305,6 @@
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3150,26 +3324,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3387,7 +3561,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3401,1126 +3575,1212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="H2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="41"/>
+      <c r="J3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="36"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="37"/>
+      <c r="J4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="29" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="31" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="42" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="42"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="41" t="s">
+      <c r="O5" s="35"/>
+      <c r="P5" s="43" t="s">
         <v>130</v>
       </c>
       <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="31" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="H6" s="37"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="40" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="J8" s="37" t="s">
+      <c r="H8" s="30"/>
+      <c r="J8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="37" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="40" t="s">
+      <c r="O8" s="30"/>
+      <c r="P8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="37"/>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="J9" s="10" t="s">
+      <c r="H9" s="41"/>
+      <c r="J9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="33" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="35" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="36"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="J10" s="9" t="s">
+      <c r="H10" s="37"/>
+      <c r="J10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="29" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="39"/>
+      <c r="N10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="31" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="Q10" s="32"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="43" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="33" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="35"/>
+      <c r="N11" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="41" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="43" t="s">
         <v>134</v>
       </c>
       <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
+      <c r="H12" s="37"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="40" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="J14" s="37" t="s">
+      <c r="H14" s="30"/>
+      <c r="J14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="37" t="s">
+      <c r="M14" s="32"/>
+      <c r="N14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="40" t="s">
+      <c r="O14" s="30"/>
+      <c r="P14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="35" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="J15" s="10" t="s">
+      <c r="H15" s="41"/>
+      <c r="J15" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="33" t="s">
+      <c r="K15" s="12"/>
+      <c r="L15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="35"/>
+      <c r="N15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="35" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="36"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="J16" s="9" t="s">
+      <c r="H16" s="37"/>
+      <c r="J16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="29" t="s">
+      <c r="K16" s="10"/>
+      <c r="L16" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="9" t="s">
+      <c r="M16" s="39"/>
+      <c r="N16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="31" t="s">
+      <c r="O16" s="10"/>
+      <c r="P16" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="Q16" s="32"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="43" t="s">
         <v>132</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="41"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="31" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
+      <c r="H18" s="37"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="40" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="J20" s="37" t="s">
+      <c r="H20" s="30"/>
+      <c r="J20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38" t="s">
+      <c r="K20" s="30"/>
+      <c r="L20" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="37" t="s">
+      <c r="M20" s="32"/>
+      <c r="N20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="40" t="s">
+      <c r="O20" s="30"/>
+      <c r="P20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="J21" s="10" t="s">
+      <c r="H21" s="41"/>
+      <c r="J21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="33" t="s">
+      <c r="K21" s="12"/>
+      <c r="L21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="10" t="s">
+      <c r="M21" s="35"/>
+      <c r="N21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="35" t="s">
+      <c r="O21" s="12"/>
+      <c r="P21" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="36"/>
+      <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="31" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="J22" s="9" t="s">
+      <c r="H22" s="37"/>
+      <c r="J22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="29" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="9" t="s">
+      <c r="M22" s="39"/>
+      <c r="N22" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="31" t="s">
+      <c r="O22" s="10"/>
+      <c r="P22" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="Q22" s="32"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="33" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="41" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="43" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="42"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="41"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="43"/>
       <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="31" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
+      <c r="H24" s="37"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="40" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="J26" s="37" t="s">
+      <c r="H26" s="30"/>
+      <c r="J26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38" t="s">
+      <c r="K26" s="30"/>
+      <c r="L26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="37" t="s">
+      <c r="M26" s="32"/>
+      <c r="N26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40" t="s">
+      <c r="O26" s="30"/>
+      <c r="P26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="37"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="35" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="J27" s="10" t="s">
+      <c r="H27" s="41"/>
+      <c r="J27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="33" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="10" t="s">
+      <c r="M27" s="35"/>
+      <c r="N27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="35" t="s">
+      <c r="O27" s="12"/>
+      <c r="P27" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" s="36"/>
+      <c r="Q27" s="41"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="40" t="s">
+      <c r="F30" s="30"/>
+      <c r="G30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="J30" s="37" t="s">
+      <c r="H30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38" t="s">
+      <c r="K30" s="30"/>
+      <c r="L30" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="37" t="s">
+      <c r="M30" s="32"/>
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="40" t="s">
+      <c r="O30" s="30"/>
+      <c r="P30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="37"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="35" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="J31" s="10" t="s">
+      <c r="H31" s="41"/>
+      <c r="J31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="33" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="10" t="s">
+      <c r="M31" s="35"/>
+      <c r="N31" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="35" t="s">
+      <c r="O31" s="12"/>
+      <c r="P31" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="Q31" s="36"/>
+      <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="32"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="40" t="s">
+      <c r="F34" s="30"/>
+      <c r="G34" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="J34" s="37" t="s">
+      <c r="H34" s="30"/>
+      <c r="J34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38" t="s">
+      <c r="K34" s="30"/>
+      <c r="L34" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M34" s="39"/>
-      <c r="N34" s="37" t="s">
+      <c r="M34" s="32"/>
+      <c r="N34" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="40" t="s">
+      <c r="O34" s="30"/>
+      <c r="P34" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="37"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="35" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="J35" s="10" t="s">
+      <c r="H35" s="41"/>
+      <c r="J35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="33" t="s">
+      <c r="K35" s="12"/>
+      <c r="L35" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="10" t="s">
+      <c r="M35" s="35"/>
+      <c r="N35" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="35" t="s">
+      <c r="O35" s="12"/>
+      <c r="P35" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Q35" s="36"/>
+      <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="J13:Q13"/>
     <mergeCell ref="A14:B14"/>
@@ -4545,173 +4805,216 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3890F0AF-C2B8-4703-813D-6E6920B8873B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="18.42578125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
+      <c r="C11" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4865,15 +5168,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C8777A-9018-4F57-A22E-758331E42F2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64664553-8C80-47CA-9108-D5700976F560}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4897,17 +5211,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64664553-8C80-47CA-9108-D5700976F560}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C8777A-9018-4F57-A22E-758331E42F2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IPAM-LF09.xlsx
+++ b/IPAM-LF09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaximilianSachs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212BC82C-8862-4E12-8256-2CDD49F4BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50CBEF-321F-4ED0-A75D-6E6C07B4529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0C367987-59E3-4F3C-8BEA-0D34FF592100}"/>
   </bookViews>
@@ -1186,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1198,129 +1198,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,6 +1226,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1352,9 +1360,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1C50A6"/>
       <color rgb="FFF5F5F5"/>
       <color rgb="FF00273E"/>
-      <color rgb="FF1C50A6"/>
       <color rgb="FF302683"/>
       <color rgb="FF0F77C4"/>
     </mruColors>
@@ -1704,409 +1712,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="15">
+      <c r="H3" s="27"/>
+      <c r="I3" s="29">
         <v>10</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="9">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18">
         <v>20</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="9" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="11">
+      <c r="H5" s="21"/>
+      <c r="I5" s="20">
         <v>30</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="9">
+      <c r="H6" s="19"/>
+      <c r="I6" s="18">
         <v>40</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="19"/>
+      <c r="M6" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="G7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="11">
+      <c r="H7" s="21"/>
+      <c r="I7" s="20">
         <v>50</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="5" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="G8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="9">
+      <c r="H8" s="19"/>
+      <c r="I8" s="18">
         <v>60</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="19"/>
+      <c r="M8" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="7" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
@@ -2123,72 +2197,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2212,403 +2220,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="10" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="21"/>
+      <c r="K14" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="10" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:L1"/>
@@ -2625,76 +2703,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2714,521 +2722,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="J1" s="39"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -3253,58 +3278,41 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3324,26 +3332,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="29"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3575,1058 +3583,1280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="33" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="30"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="40" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="49"/>
+      <c r="J3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="40" t="s">
+      <c r="O3" s="23"/>
+      <c r="P3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="41"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="45"/>
+      <c r="J4" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="22"/>
+      <c r="L4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="36" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="37"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="J5" s="12" t="s">
+      <c r="H5" s="55"/>
+      <c r="J5" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="23"/>
+      <c r="L5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="43" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="H6" s="45"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="33" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="J8" s="30" t="s">
+      <c r="H8" s="50"/>
+      <c r="J8" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="30" t="s">
+      <c r="M8" s="52"/>
+      <c r="N8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="33" t="s">
+      <c r="O8" s="50"/>
+      <c r="P8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="30"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="49"/>
+      <c r="J9" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="34" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="40" t="s">
+      <c r="O9" s="23"/>
+      <c r="P9" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="41"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="45"/>
+      <c r="J10" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="38" t="s">
+      <c r="K10" s="22"/>
+      <c r="L10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="10" t="s">
+      <c r="M10" s="43"/>
+      <c r="N10" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="36" t="s">
+      <c r="O10" s="22"/>
+      <c r="P10" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="43" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="55"/>
+      <c r="J11" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="34" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="47"/>
+      <c r="N11" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="43" t="s">
+      <c r="O11" s="23"/>
+      <c r="P11" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="42"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
+      <c r="H12" s="45"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="J14" s="30" t="s">
+      <c r="H14" s="50"/>
+      <c r="J14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31" t="s">
+      <c r="K14" s="50"/>
+      <c r="L14" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="30" t="s">
+      <c r="M14" s="52"/>
+      <c r="N14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="33" t="s">
+      <c r="O14" s="50"/>
+      <c r="P14" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="30"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="40" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="J15" s="12" t="s">
+      <c r="H15" s="49"/>
+      <c r="J15" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="34" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="12" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="40" t="s">
+      <c r="O15" s="23"/>
+      <c r="P15" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="41"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="45"/>
+      <c r="J16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="38" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="43"/>
+      <c r="N16" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="36" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="43" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="42"/>
+      <c r="H17" s="55"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
+      <c r="H18" s="45"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="J20" s="30" t="s">
+      <c r="H20" s="50"/>
+      <c r="J20" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31" t="s">
+      <c r="K20" s="50"/>
+      <c r="L20" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="30" t="s">
+      <c r="M20" s="52"/>
+      <c r="N20" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="33" t="s">
+      <c r="O20" s="50"/>
+      <c r="P20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="30"/>
+      <c r="Q20" s="50"/>
     </row>
     <row r="21" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="40" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="J21" s="12" t="s">
+      <c r="H21" s="49"/>
+      <c r="J21" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="34" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="12" t="s">
+      <c r="M21" s="47"/>
+      <c r="N21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="40" t="s">
+      <c r="O21" s="23"/>
+      <c r="P21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="38" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="45"/>
+      <c r="J22" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="22"/>
+      <c r="L22" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="10" t="s">
+      <c r="M22" s="43"/>
+      <c r="N22" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="36" t="s">
+      <c r="O22" s="22"/>
+      <c r="P22" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="43" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="42"/>
+      <c r="H23" s="55"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
+      <c r="H24" s="45"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="J26" s="30" t="s">
+      <c r="H26" s="50"/>
+      <c r="J26" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31" t="s">
+      <c r="K26" s="50"/>
+      <c r="L26" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="30" t="s">
+      <c r="M26" s="52"/>
+      <c r="N26" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="33" t="s">
+      <c r="O26" s="50"/>
+      <c r="P26" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="30"/>
+      <c r="Q26" s="50"/>
     </row>
     <row r="27" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="40" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="J27" s="12" t="s">
+      <c r="H27" s="49"/>
+      <c r="J27" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="34" t="s">
+      <c r="K27" s="23"/>
+      <c r="L27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="12" t="s">
+      <c r="M27" s="47"/>
+      <c r="N27" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="40" t="s">
+      <c r="O27" s="23"/>
+      <c r="P27" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="45"/>
     </row>
     <row r="29" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="33" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="J30" s="30" t="s">
+      <c r="H30" s="50"/>
+      <c r="J30" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31" t="s">
+      <c r="K30" s="50"/>
+      <c r="L30" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="30" t="s">
+      <c r="M30" s="52"/>
+      <c r="N30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="33" t="s">
+      <c r="O30" s="50"/>
+      <c r="P30" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="30"/>
+      <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="40" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="J31" s="12" t="s">
+      <c r="H31" s="49"/>
+      <c r="J31" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="34" t="s">
+      <c r="K31" s="23"/>
+      <c r="L31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="12" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="40" t="s">
+      <c r="O31" s="23"/>
+      <c r="P31" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="Q31" s="41"/>
+      <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="30" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="33" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="J34" s="30" t="s">
+      <c r="H34" s="50"/>
+      <c r="J34" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31" t="s">
+      <c r="K34" s="50"/>
+      <c r="L34" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="30" t="s">
+      <c r="M34" s="52"/>
+      <c r="N34" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="30"/>
-      <c r="P34" s="33" t="s">
+      <c r="O34" s="50"/>
+      <c r="P34" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="30"/>
+      <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="40" t="s">
+      <c r="F35" s="23"/>
+      <c r="G35" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="J35" s="12" t="s">
+      <c r="H35" s="49"/>
+      <c r="J35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="34" t="s">
+      <c r="K35" s="23"/>
+      <c r="L35" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="12" t="s">
+      <c r="M35" s="47"/>
+      <c r="N35" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="40" t="s">
+      <c r="O35" s="23"/>
+      <c r="P35" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="Q35" s="41"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="246">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A28:B28"/>
@@ -4651,228 +4881,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4881,127 +4889,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3890F0AF-C2B8-4703-813D-6E6920B8873B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="18.42578125" style="44"/>
+    <col min="1" max="16384" width="18.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+    </row>
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="58">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="58">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="C11" s="56"/>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="11"/>
+      <c r="C11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5012,9 +5019,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5168,26 +5178,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64664553-8C80-47CA-9108-D5700976F560}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C8777A-9018-4F57-A22E-758331E42F2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5211,9 +5210,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89C8777A-9018-4F57-A22E-758331E42F2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64664553-8C80-47CA-9108-D5700976F560}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="586318e7-31aa-4bf9-bc99-c56363ea0cc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>